--- a/docs/Classifcation Reports/RandomForestClassifier()_2.xlsx
+++ b/docs/Classifcation Reports/RandomForestClassifier()_2.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7992753623188406</v>
+        <v>0.7711803041274439</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9616390584132519</v>
+        <v>0.9366754617414248</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8729719034428176</v>
+        <v>0.8459094519459889</v>
       </c>
       <c r="E2" t="n">
-        <v>1147</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9667721518987342</v>
+        <v>0.9479495268138801</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9356814701378254</v>
+        <v>0.9375975039001561</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9509727626459146</v>
+        <v>0.9427450980392157</v>
       </c>
       <c r="E3" t="n">
-        <v>653</v>
+        <v>641</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8479899497487438</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8620689655172413</v>
+        <v>0.8250620347394541</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8549715009499684</v>
+        <v>0.8291770573566085</v>
       </c>
       <c r="E4" t="n">
-        <v>783</v>
+        <v>806</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.946969696969697</v>
+        <v>0.9448818897637795</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3501400560224089</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5112474437627812</v>
+        <v>0.4968944099378881</v>
       </c>
       <c r="E5" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8551020408163266</v>
+        <v>0.8336734693877551</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8551020408163266</v>
+        <v>0.8336734693877551</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8551020408163266</v>
+        <v>0.8336734693877551</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8551020408163266</v>
+        <v>0.8336734693877551</v>
       </c>
     </row>
     <row r="7">
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8902517902340039</v>
+        <v>0.8743362635096092</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7773823875226819</v>
+        <v>0.759103413016607</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7975409027003705</v>
+        <v>0.7786815043199253</v>
       </c>
       <c r="E7" t="n">
         <v>2940</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8673861796738205</v>
+        <v>0.8477932897629841</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8551020408163266</v>
+        <v>0.8336734693877551</v>
       </c>
       <c r="D8" t="n">
-        <v>0.841578914940079</v>
+        <v>0.8201733921336876</v>
       </c>
       <c r="E8" t="n">
         <v>2940</v>
